--- a/freshers_data.xlsx
+++ b/freshers_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COLLEGE FEST DATABASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FBD6CEE-C56D-4928-AA9D-049103B624B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA8A57A-C69F-41AA-B062-6FB924717B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{A9B79A1D-B895-4689-9B89-9439FE9594F4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="1634">
   <si>
     <t>Name</t>
   </si>
@@ -4384,6 +4384,558 @@
   </si>
   <si>
     <t>V4U6AVE6X4FF</t>
+  </si>
+  <si>
+    <t>UNOFFICAL</t>
+  </si>
+  <si>
+    <t>BODDULA RISHI</t>
+  </si>
+  <si>
+    <t>23C71A6724</t>
+  </si>
+  <si>
+    <t>rishiboddula32@gmail.com</t>
+  </si>
+  <si>
+    <t>OV5DJ9YMVX35</t>
+  </si>
+  <si>
+    <t>YELLA ESHWAR SAI</t>
+  </si>
+  <si>
+    <t>23C71A6730</t>
+  </si>
+  <si>
+    <t>Saieshwar724@gamil.com</t>
+  </si>
+  <si>
+    <t>K3LEHCB2IPC9</t>
+  </si>
+  <si>
+    <t>D.BHARGAV</t>
+  </si>
+  <si>
+    <t>23C71A6747</t>
+  </si>
+  <si>
+    <t>donthiboyinab@gmail.com</t>
+  </si>
+  <si>
+    <t>JSUT65TMCPZT</t>
+  </si>
+  <si>
+    <t>MIDDE SHIRISHA</t>
+  </si>
+  <si>
+    <t>24C71A05H3</t>
+  </si>
+  <si>
+    <t>shirishashiri75@gmail.com</t>
+  </si>
+  <si>
+    <t>QFERCEFJSH8O</t>
+  </si>
+  <si>
+    <t>MALLARAPU SIRICHANDANA</t>
+  </si>
+  <si>
+    <t>24C71A05E6</t>
+  </si>
+  <si>
+    <t>anveshsonu5555@gmail.com</t>
+  </si>
+  <si>
+    <t>F9BN54YCQGUD</t>
+  </si>
+  <si>
+    <t>ESLAVATHA TRISHA</t>
+  </si>
+  <si>
+    <t>24C71A05G4</t>
+  </si>
+  <si>
+    <t>trisha.eslavath1@gmail.com</t>
+  </si>
+  <si>
+    <t>KU8JAZVACMS7</t>
+  </si>
+  <si>
+    <t>BODDU SPANDHANA</t>
+  </si>
+  <si>
+    <t>24C71A05G7</t>
+  </si>
+  <si>
+    <t>spandhanaboddu@gmail.com</t>
+  </si>
+  <si>
+    <t>11URQQZTCC3X</t>
+  </si>
+  <si>
+    <t>LABBA GAYATHRI</t>
+  </si>
+  <si>
+    <t>24C71A05F1</t>
+  </si>
+  <si>
+    <t>YDQJQUZ2DZV1</t>
+  </si>
+  <si>
+    <t>PATLOLLA SHIVANI</t>
+  </si>
+  <si>
+    <t>24C71A05A4</t>
+  </si>
+  <si>
+    <t>shivanipatlolla2004@gmail.com</t>
+  </si>
+  <si>
+    <t>AC4AY23PBCCA</t>
+  </si>
+  <si>
+    <t>KUNAPAREDDY JAIDEEP</t>
+  </si>
+  <si>
+    <t>23C71A6612</t>
+  </si>
+  <si>
+    <t>chintujayadevp@gmail.com</t>
+  </si>
+  <si>
+    <t>7U18RHKSLS7S</t>
+  </si>
+  <si>
+    <t>ABHISHEK SALLA</t>
+  </si>
+  <si>
+    <t>23C71A6664</t>
+  </si>
+  <si>
+    <t>abhi142668@gmail.com</t>
+  </si>
+  <si>
+    <t>8GS88PZBS490</t>
+  </si>
+  <si>
+    <t>TENUGU TEJASWI</t>
+  </si>
+  <si>
+    <t>23C71A6641</t>
+  </si>
+  <si>
+    <t>tejaswiniteju5577@gmail.com</t>
+  </si>
+  <si>
+    <t>57EW37QRJ4OS</t>
+  </si>
+  <si>
+    <t>DHAVILESWAR APU BHIMESWAR SAI KARTHIK</t>
+  </si>
+  <si>
+    <t>23C71A05A2</t>
+  </si>
+  <si>
+    <t>dhaveleswarapusaikarthik@gmail.com</t>
+  </si>
+  <si>
+    <t>HY5TTOMLGE12</t>
+  </si>
+  <si>
+    <t>KOMURAVELLI AISHWARYA</t>
+  </si>
+  <si>
+    <t>24C71A6668</t>
+  </si>
+  <si>
+    <t>rumaadas2630@gmail.com</t>
+  </si>
+  <si>
+    <t>ODLWBCO9LIF6</t>
+  </si>
+  <si>
+    <t>DHARAVATH VISHNU</t>
+  </si>
+  <si>
+    <t>24C71A6241</t>
+  </si>
+  <si>
+    <t>callmeg98@gmail.com</t>
+  </si>
+  <si>
+    <t>4DFEVPCLKHD4</t>
+  </si>
+  <si>
+    <t>SWAJAL KUMAR KACHHI</t>
+  </si>
+  <si>
+    <t>23C71A6233</t>
+  </si>
+  <si>
+    <t>swajalkumarkachhi@gmail.com</t>
+  </si>
+  <si>
+    <t>3KKRW92G1P4H</t>
+  </si>
+  <si>
+    <t>SHAIK SIDRA</t>
+  </si>
+  <si>
+    <t>23C71A0593</t>
+  </si>
+  <si>
+    <t>khutejashaik63@gmail.com</t>
+  </si>
+  <si>
+    <t>BXXL8IO6AW3P</t>
+  </si>
+  <si>
+    <t>KOTHAPALLY RADHIKA</t>
+  </si>
+  <si>
+    <t>23C71A0572</t>
+  </si>
+  <si>
+    <t>radhikakothapally05@gmail.com</t>
+  </si>
+  <si>
+    <t>59BB787CAIBI</t>
+  </si>
+  <si>
+    <t>KAKINADA MALLESHWARI</t>
+  </si>
+  <si>
+    <t>23C71A0595</t>
+  </si>
+  <si>
+    <t>kmalleshwari2601@gmail.com</t>
+  </si>
+  <si>
+    <t>KVQFVWVX62ET</t>
+  </si>
+  <si>
+    <t>D.SANJEEV REDDY</t>
+  </si>
+  <si>
+    <t>23C71A0586</t>
+  </si>
+  <si>
+    <t>vvreddy569@gmail.com</t>
+  </si>
+  <si>
+    <t>ITWT48KHHKQG</t>
+  </si>
+  <si>
+    <t>MALGEY ADARSH</t>
+  </si>
+  <si>
+    <t>23C71A05A9</t>
+  </si>
+  <si>
+    <t>alluarjunadi143@gmail.com</t>
+  </si>
+  <si>
+    <t>WGLS17NX4PG7</t>
+  </si>
+  <si>
+    <t>PIREDDY MANOJ REDDY</t>
+  </si>
+  <si>
+    <t>24C71A0564</t>
+  </si>
+  <si>
+    <t>manojreddypireddy@gmail.com</t>
+  </si>
+  <si>
+    <t>S56JQQ0CSO67</t>
+  </si>
+  <si>
+    <t>SYED RAHEEM</t>
+  </si>
+  <si>
+    <t>24C71A0521</t>
+  </si>
+  <si>
+    <t>raheemsyed893@gmail.com</t>
+  </si>
+  <si>
+    <t>UNASM5NYHJVW</t>
+  </si>
+  <si>
+    <t>GADIGE UDAY</t>
+  </si>
+  <si>
+    <t>23C71A6602</t>
+  </si>
+  <si>
+    <t>udayshankargadige27@gmail.com</t>
+  </si>
+  <si>
+    <t>LSXEQNEQMQ66</t>
+  </si>
+  <si>
+    <t>SAMEERA NAZMEEN</t>
+  </si>
+  <si>
+    <t>23C71A0537</t>
+  </si>
+  <si>
+    <t>sameerasam3118@gmail.com</t>
+  </si>
+  <si>
+    <t>BJC0U88ZQKK7</t>
+  </si>
+  <si>
+    <t>PITLAM SAIKUMAR</t>
+  </si>
+  <si>
+    <t>23C71A0597</t>
+  </si>
+  <si>
+    <t>pitlamsaikumar4@gmail.com</t>
+  </si>
+  <si>
+    <t>QMUF0U4L9H4C</t>
+  </si>
+  <si>
+    <t>UROGONDA TEJA</t>
+  </si>
+  <si>
+    <t>23C71A6617</t>
+  </si>
+  <si>
+    <t>tejaurogonda@gmail.com</t>
+  </si>
+  <si>
+    <t>RB3YYVE39AOP</t>
+  </si>
+  <si>
+    <t>ALLA LOKESH</t>
+  </si>
+  <si>
+    <t>23C71A6624</t>
+  </si>
+  <si>
+    <t>lokeshalla8964@gmail.com</t>
+  </si>
+  <si>
+    <t>QX35RU1ECEON</t>
+  </si>
+  <si>
+    <t>RADHANDI AJAY KUMAR</t>
+  </si>
+  <si>
+    <t>23C71A6658</t>
+  </si>
+  <si>
+    <t>radhandiajaykumar@gmail.com</t>
+  </si>
+  <si>
+    <t>ON73CDBSQ51W</t>
+  </si>
+  <si>
+    <t>NALLAGOPPULA SOMESHWAR</t>
+  </si>
+  <si>
+    <t>23C71A0575</t>
+  </si>
+  <si>
+    <t>someshnal926@gmail.com</t>
+  </si>
+  <si>
+    <t>UK1JUBSXBRY4</t>
+  </si>
+  <si>
+    <t>GONDLA NAVYA SRI</t>
+  </si>
+  <si>
+    <t>24C71A6741</t>
+  </si>
+  <si>
+    <t>gondlanavyasri@gmail.com</t>
+  </si>
+  <si>
+    <t>U0949HG5EX23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anishreddy </t>
+  </si>
+  <si>
+    <t>23C71A6619</t>
+  </si>
+  <si>
+    <t>anishreddy2176@gmail.com</t>
+  </si>
+  <si>
+    <t>BRHEDY8MEZHQ</t>
+  </si>
+  <si>
+    <t>MODALA HARISH</t>
+  </si>
+  <si>
+    <t>23C71A0413</t>
+  </si>
+  <si>
+    <t>harishsagar7153@gmail.com</t>
+  </si>
+  <si>
+    <t>MVLOYKQKNM67</t>
+  </si>
+  <si>
+    <t>GORRE CHARAN REDDY</t>
+  </si>
+  <si>
+    <t>24C71A0208</t>
+  </si>
+  <si>
+    <t>XKUXP8OC37YI</t>
+  </si>
+  <si>
+    <t>DASU NANDINI</t>
+  </si>
+  <si>
+    <t>23C71A6648</t>
+  </si>
+  <si>
+    <t>dasunandini16@gmail.com</t>
+  </si>
+  <si>
+    <t>1R2V72LZWKRZ</t>
+  </si>
+  <si>
+    <t>TALLA SMITHA</t>
+  </si>
+  <si>
+    <t>23C71A6604</t>
+  </si>
+  <si>
+    <t>tallasmitha31@gmail.com</t>
+  </si>
+  <si>
+    <t>49OBUXTR1ITP</t>
+  </si>
+  <si>
+    <t>PAIDADA JAGADEESH</t>
+  </si>
+  <si>
+    <t>23C71A6649</t>
+  </si>
+  <si>
+    <t>pyadadaj@gmail.com</t>
+  </si>
+  <si>
+    <t>A0RYY75NN7DM</t>
+  </si>
+  <si>
+    <t>TANNA KRISHNAVAMSI</t>
+  </si>
+  <si>
+    <t>23C71A6621</t>
+  </si>
+  <si>
+    <t>Krishnavamsitanna123@gmail.com</t>
+  </si>
+  <si>
+    <t>E10K20L4O58F</t>
+  </si>
+  <si>
+    <t>MANTHENA AASLESH VARMA</t>
+  </si>
+  <si>
+    <t>24C71A05O4</t>
+  </si>
+  <si>
+    <t>manthenaaasleshvarma19@gmail.com</t>
+  </si>
+  <si>
+    <t>G99HQ2R2IANR</t>
+  </si>
+  <si>
+    <t>Pranay</t>
+  </si>
+  <si>
+    <t>23C71A6206</t>
+  </si>
+  <si>
+    <t>pranay.b0311@gmail.com</t>
+  </si>
+  <si>
+    <t>0VC8R0P43F1C</t>
+  </si>
+  <si>
+    <t>NIKIL KUMAR</t>
+  </si>
+  <si>
+    <t>23C71A6225</t>
+  </si>
+  <si>
+    <t>sankarapunikil123@gmail.com</t>
+  </si>
+  <si>
+    <t>TXJCEAXBW1U7</t>
+  </si>
+  <si>
+    <t>BADRINATH REDDY</t>
+  </si>
+  <si>
+    <t>23C71A6215</t>
+  </si>
+  <si>
+    <t>yamalar@gmail.com</t>
+  </si>
+  <si>
+    <t>NEXWI5ECO8UE</t>
+  </si>
+  <si>
+    <t>BRAMHAKANTI SAI GEETH</t>
+  </si>
+  <si>
+    <t>23C71A6226</t>
+  </si>
+  <si>
+    <t>saigeethbramhakanti2005@gmail.com</t>
+  </si>
+  <si>
+    <t>09YGLSI9A5B8</t>
+  </si>
+  <si>
+    <t>TILAK VARMA</t>
+  </si>
+  <si>
+    <t>23C71A6208</t>
+  </si>
+  <si>
+    <t>tilakvarma2022@gmail.com</t>
+  </si>
+  <si>
+    <t>D33ZNCE9STXT</t>
+  </si>
+  <si>
+    <t>BATHINI SHASHANK</t>
+  </si>
+  <si>
+    <t>24C71A6215</t>
+  </si>
+  <si>
+    <t>shashankbathini@gmail.com</t>
+  </si>
+  <si>
+    <t>9HYGVV8WO68G</t>
+  </si>
+  <si>
+    <t>VARDHAN</t>
+  </si>
+  <si>
+    <t>23C71A6231</t>
+  </si>
+  <si>
+    <t>8019435908</t>
+  </si>
+  <si>
+    <t>vardhangandla2005@gmail.com</t>
+  </si>
+  <si>
+    <t>D9Y3XTVFHR91</t>
   </si>
 </sst>
 </file>
@@ -4762,10 +5314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB2DBF2-83F3-4C0C-9FEF-BE289F74B06E}">
-  <dimension ref="A1:I365"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I365"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="A366" sqref="A366:H415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14137,6 +14689,1285 @@
         <v>361</v>
       </c>
     </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C367">
+        <v>9441793336</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E367" t="s">
+        <v>12</v>
+      </c>
+      <c r="F367" t="s">
+        <v>549</v>
+      </c>
+      <c r="G367" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H367" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C368">
+        <v>6281107647</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E368" t="s">
+        <v>12</v>
+      </c>
+      <c r="F368" t="s">
+        <v>549</v>
+      </c>
+      <c r="G368" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H368" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C369">
+        <v>7075356421</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E369" t="s">
+        <v>12</v>
+      </c>
+      <c r="F369" t="s">
+        <v>549</v>
+      </c>
+      <c r="G369" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H369" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C370">
+        <v>9618380345</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E370" t="s">
+        <v>133</v>
+      </c>
+      <c r="F370" t="s">
+        <v>13</v>
+      </c>
+      <c r="G370" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H370" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C371">
+        <v>7993514752</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E371" t="s">
+        <v>133</v>
+      </c>
+      <c r="F371" t="s">
+        <v>13</v>
+      </c>
+      <c r="G371" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H371" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C372">
+        <v>7997084213</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E372" t="s">
+        <v>133</v>
+      </c>
+      <c r="F372" t="s">
+        <v>13</v>
+      </c>
+      <c r="G372" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H372" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C373">
+        <v>8121430759</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E373" t="s">
+        <v>133</v>
+      </c>
+      <c r="F373" t="s">
+        <v>13</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H373" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C374">
+        <v>9030964549</v>
+      </c>
+      <c r="D374" t="s">
+        <v>165</v>
+      </c>
+      <c r="E374" t="s">
+        <v>133</v>
+      </c>
+      <c r="F374" t="s">
+        <v>13</v>
+      </c>
+      <c r="G374" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H374" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C375">
+        <v>6300793968</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E375" t="s">
+        <v>133</v>
+      </c>
+      <c r="F375" t="s">
+        <v>13</v>
+      </c>
+      <c r="G375" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H375" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C376">
+        <v>9618138939</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E376" t="s">
+        <v>19</v>
+      </c>
+      <c r="F376" t="s">
+        <v>549</v>
+      </c>
+      <c r="G376" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H376" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C377">
+        <v>9948418776</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E377" t="s">
+        <v>19</v>
+      </c>
+      <c r="F377" t="s">
+        <v>549</v>
+      </c>
+      <c r="G377" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H377" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C378">
+        <v>8074568965</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E378" t="s">
+        <v>19</v>
+      </c>
+      <c r="F378" t="s">
+        <v>549</v>
+      </c>
+      <c r="G378" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H378" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C379">
+        <v>6300793968</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E379" t="s">
+        <v>133</v>
+      </c>
+      <c r="F379" t="s">
+        <v>13</v>
+      </c>
+      <c r="G379" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H379" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C380">
+        <v>9618138939</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E380" t="s">
+        <v>19</v>
+      </c>
+      <c r="F380" t="s">
+        <v>549</v>
+      </c>
+      <c r="G380" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H380" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C381">
+        <v>9948418776</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E381" t="s">
+        <v>19</v>
+      </c>
+      <c r="F381" t="s">
+        <v>549</v>
+      </c>
+      <c r="G381" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H381" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C382">
+        <v>8074931793</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E382" t="s">
+        <v>133</v>
+      </c>
+      <c r="F382" t="s">
+        <v>549</v>
+      </c>
+      <c r="G382" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H382" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C383">
+        <v>9390322871</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E383" t="s">
+        <v>133</v>
+      </c>
+      <c r="F383" t="s">
+        <v>13</v>
+      </c>
+      <c r="G383" t="s">
+        <v>1505</v>
+      </c>
+      <c r="H383" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C384">
+        <v>7337432711</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E384" t="s">
+        <v>323</v>
+      </c>
+      <c r="F384" t="s">
+        <v>13</v>
+      </c>
+      <c r="G384" t="s">
+        <v>1509</v>
+      </c>
+      <c r="H384" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C385">
+        <v>8309329250</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E385" t="s">
+        <v>323</v>
+      </c>
+      <c r="F385" t="s">
+        <v>549</v>
+      </c>
+      <c r="G385" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H385" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C386">
+        <v>7075789638</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E386" t="s">
+        <v>133</v>
+      </c>
+      <c r="F386" t="s">
+        <v>549</v>
+      </c>
+      <c r="G386" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H386" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C387">
+        <v>9032769043</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E387" t="s">
+        <v>133</v>
+      </c>
+      <c r="F387" t="s">
+        <v>549</v>
+      </c>
+      <c r="G387" t="s">
+        <v>1521</v>
+      </c>
+      <c r="H387" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C388">
+        <v>8523056539</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E388" t="s">
+        <v>133</v>
+      </c>
+      <c r="F388" t="s">
+        <v>549</v>
+      </c>
+      <c r="G388" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H388" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C389">
+        <v>6281533969</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E389" t="s">
+        <v>133</v>
+      </c>
+      <c r="F389" t="s">
+        <v>549</v>
+      </c>
+      <c r="G389" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H389" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C390">
+        <v>7702393917</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E390" t="s">
+        <v>133</v>
+      </c>
+      <c r="F390" t="s">
+        <v>549</v>
+      </c>
+      <c r="G390" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H390" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C391">
+        <v>8978826131</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E391" t="s">
+        <v>133</v>
+      </c>
+      <c r="F391" t="s">
+        <v>13</v>
+      </c>
+      <c r="G391" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H391" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C392">
+        <v>8106094952</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E392" t="s">
+        <v>133</v>
+      </c>
+      <c r="F392" t="s">
+        <v>13</v>
+      </c>
+      <c r="G392" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H392" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C393">
+        <v>8328436970</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E393" t="s">
+        <v>133</v>
+      </c>
+      <c r="F393" t="s">
+        <v>549</v>
+      </c>
+      <c r="G393" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H393" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C394">
+        <v>9182626720</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E394" t="s">
+        <v>133</v>
+      </c>
+      <c r="F394" t="s">
+        <v>549</v>
+      </c>
+      <c r="G394" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H394" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C395">
+        <v>8499886127</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E395" t="s">
+        <v>133</v>
+      </c>
+      <c r="F395" t="s">
+        <v>549</v>
+      </c>
+      <c r="G395" t="s">
+        <v>1553</v>
+      </c>
+      <c r="H395" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C396">
+        <v>8247865816</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E396" t="s">
+        <v>19</v>
+      </c>
+      <c r="F396" t="s">
+        <v>549</v>
+      </c>
+      <c r="G396" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H396" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C397">
+        <v>6300649166</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E397" t="s">
+        <v>19</v>
+      </c>
+      <c r="F397" t="s">
+        <v>549</v>
+      </c>
+      <c r="G397" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H397" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C398">
+        <v>6305110134</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E398" t="s">
+        <v>19</v>
+      </c>
+      <c r="F398" t="s">
+        <v>549</v>
+      </c>
+      <c r="G398" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H398" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C399">
+        <v>9177578161</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E399" t="s">
+        <v>133</v>
+      </c>
+      <c r="F399" t="s">
+        <v>549</v>
+      </c>
+      <c r="G399" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H399" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C400">
+        <v>9441133180</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E400" t="s">
+        <v>12</v>
+      </c>
+      <c r="F400" t="s">
+        <v>13</v>
+      </c>
+      <c r="G400" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H400" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C401">
+        <v>7842593409</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E401" t="s">
+        <v>19</v>
+      </c>
+      <c r="F401" t="s">
+        <v>549</v>
+      </c>
+      <c r="G401" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H401" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C402">
+        <v>9381284510</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E402" t="s">
+        <v>574</v>
+      </c>
+      <c r="F402" t="s">
+        <v>549</v>
+      </c>
+      <c r="G402" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H402" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C403">
+        <v>9390497593</v>
+      </c>
+      <c r="D403" t="s">
+        <v>974</v>
+      </c>
+      <c r="E403" t="s">
+        <v>133</v>
+      </c>
+      <c r="F403" t="s">
+        <v>13</v>
+      </c>
+      <c r="G403" t="s">
+        <v>1584</v>
+      </c>
+      <c r="H403" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C404">
+        <v>9032796018</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E404" t="s">
+        <v>19</v>
+      </c>
+      <c r="F404" t="s">
+        <v>549</v>
+      </c>
+      <c r="G404" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H404" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C405">
+        <v>7013263994</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E405" t="s">
+        <v>19</v>
+      </c>
+      <c r="F405" t="s">
+        <v>549</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H405" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C406">
+        <v>9390777855</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E406" t="s">
+        <v>19</v>
+      </c>
+      <c r="F406" t="s">
+        <v>549</v>
+      </c>
+      <c r="G406" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H406" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C407">
+        <v>9666148320</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E407" t="s">
+        <v>19</v>
+      </c>
+      <c r="F407" t="s">
+        <v>549</v>
+      </c>
+      <c r="G407" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H407" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C408">
+        <v>8125918168</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E408" t="s">
+        <v>133</v>
+      </c>
+      <c r="F408" t="s">
+        <v>13</v>
+      </c>
+      <c r="G408" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H408" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C409">
+        <v>9059315079</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E409" t="s">
+        <v>323</v>
+      </c>
+      <c r="F409" t="s">
+        <v>549</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1608</v>
+      </c>
+      <c r="H409" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C410">
+        <v>6302298002</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E410" t="s">
+        <v>323</v>
+      </c>
+      <c r="F410" t="s">
+        <v>549</v>
+      </c>
+      <c r="G410" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H410" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C411">
+        <v>8886577340</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E411" t="s">
+        <v>323</v>
+      </c>
+      <c r="F411" t="s">
+        <v>549</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H411" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C412">
+        <v>9493834676</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E412" t="s">
+        <v>323</v>
+      </c>
+      <c r="F412" t="s">
+        <v>549</v>
+      </c>
+      <c r="G412" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H412" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C413">
+        <v>9182330751</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E413" t="s">
+        <v>323</v>
+      </c>
+      <c r="F413" t="s">
+        <v>549</v>
+      </c>
+      <c r="G413" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H413" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C414">
+        <v>8919441283</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E414" t="s">
+        <v>323</v>
+      </c>
+      <c r="F414" t="s">
+        <v>13</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H414" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E415" t="s">
+        <v>323</v>
+      </c>
+      <c r="F415" t="s">
+        <v>549</v>
+      </c>
+      <c r="G415" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H415" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/freshers_data.xlsx
+++ b/freshers_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COLLEGE FEST DATABASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA8A57A-C69F-41AA-B062-6FB924717B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8567A170-638D-4E12-93FC-75BD43E9BCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{A9B79A1D-B895-4689-9B89-9439FE9594F4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="1633">
   <si>
     <t>Name</t>
   </si>
@@ -4384,9 +4384,6 @@
   </si>
   <si>
     <t>V4U6AVE6X4FF</t>
-  </si>
-  <si>
-    <t>UNOFFICAL</t>
   </si>
   <si>
     <t>BODDULA RISHI</t>
@@ -5314,10 +5311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB2DBF2-83F3-4C0C-9FEF-BE289F74B06E}">
-  <dimension ref="A1:I415"/>
+  <dimension ref="A1:I414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="A366" sqref="A366:H415"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="A366" sqref="A366:XFD366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14693,19 +14690,40 @@
       <c r="A366" t="s">
         <v>1450</v>
       </c>
+      <c r="B366" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C366">
+        <v>9441793336</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E366" t="s">
+        <v>12</v>
+      </c>
+      <c r="F366" t="s">
+        <v>549</v>
+      </c>
+      <c r="G366" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H366" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="B367" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="C367">
-        <v>9441793336</v>
+        <v>6281107647</v>
       </c>
       <c r="D367" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="E367" t="s">
         <v>12</v>
@@ -14714,7 +14732,7 @@
         <v>549</v>
       </c>
       <c r="G367" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="H367" t="s">
         <v>15</v>
@@ -14722,16 +14740,16 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="B368" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="C368">
-        <v>6281107647</v>
+        <v>7075356421</v>
       </c>
       <c r="D368" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="E368" t="s">
         <v>12</v>
@@ -14740,7 +14758,7 @@
         <v>549</v>
       </c>
       <c r="G368" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="H368" t="s">
         <v>15</v>
@@ -14748,25 +14766,25 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="B369" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="C369">
-        <v>7075356421</v>
+        <v>9618380345</v>
       </c>
       <c r="D369" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="E369" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="F369" t="s">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="G369" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="H369" t="s">
         <v>15</v>
@@ -14774,16 +14792,16 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="B370" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="C370">
-        <v>9618380345</v>
+        <v>7993514752</v>
       </c>
       <c r="D370" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="E370" t="s">
         <v>133</v>
@@ -14792,7 +14810,7 @@
         <v>13</v>
       </c>
       <c r="G370" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="H370" t="s">
         <v>15</v>
@@ -14800,16 +14818,16 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="B371" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="C371">
-        <v>7993514752</v>
+        <v>7997084213</v>
       </c>
       <c r="D371" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="E371" t="s">
         <v>133</v>
@@ -14818,7 +14836,7 @@
         <v>13</v>
       </c>
       <c r="G371" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="H371" t="s">
         <v>15</v>
@@ -14826,16 +14844,16 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="B372" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="C372">
-        <v>7997084213</v>
+        <v>8121430759</v>
       </c>
       <c r="D372" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="E372" t="s">
         <v>133</v>
@@ -14844,7 +14862,7 @@
         <v>13</v>
       </c>
       <c r="G372" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="H372" t="s">
         <v>15</v>
@@ -14852,16 +14870,16 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="B373" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="C373">
-        <v>8121430759</v>
+        <v>9030964549</v>
       </c>
       <c r="D373" t="s">
-        <v>1477</v>
+        <v>165</v>
       </c>
       <c r="E373" t="s">
         <v>133</v>
@@ -14870,24 +14888,24 @@
         <v>13</v>
       </c>
       <c r="G373" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="H373" t="s">
-        <v>15</v>
+        <v>361</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="B374" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="C374">
-        <v>9030964549</v>
+        <v>6300793968</v>
       </c>
       <c r="D374" t="s">
-        <v>165</v>
+        <v>1483</v>
       </c>
       <c r="E374" t="s">
         <v>133</v>
@@ -14896,33 +14914,33 @@
         <v>13</v>
       </c>
       <c r="G374" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="H374" t="s">
-        <v>361</v>
+        <v>15</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="B375" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="C375">
-        <v>6300793968</v>
+        <v>9618138939</v>
       </c>
       <c r="D375" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="E375" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="F375" t="s">
-        <v>13</v>
+        <v>549</v>
       </c>
       <c r="G375" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H375" t="s">
         <v>15</v>
@@ -14930,16 +14948,16 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="B376" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="C376">
-        <v>9618138939</v>
+        <v>9948418776</v>
       </c>
       <c r="D376" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="E376" t="s">
         <v>19</v>
@@ -14948,24 +14966,24 @@
         <v>549</v>
       </c>
       <c r="G376" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="H376" t="s">
-        <v>15</v>
+        <v>361</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="B377" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="C377">
-        <v>9948418776</v>
+        <v>8074568965</v>
       </c>
       <c r="D377" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="E377" t="s">
         <v>19</v>
@@ -14974,33 +14992,33 @@
         <v>549</v>
       </c>
       <c r="G377" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="H377" t="s">
-        <v>361</v>
+        <v>15</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>1494</v>
+        <v>1481</v>
       </c>
       <c r="B378" t="s">
-        <v>1495</v>
+        <v>1482</v>
       </c>
       <c r="C378">
-        <v>8074568965</v>
+        <v>6300793968</v>
       </c>
       <c r="D378" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="E378" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="F378" t="s">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="G378" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
       <c r="H378" t="s">
         <v>15</v>
@@ -15008,25 +15026,25 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="B379" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="C379">
-        <v>6300793968</v>
+        <v>9618138939</v>
       </c>
       <c r="D379" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="E379" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="F379" t="s">
-        <v>13</v>
+        <v>549</v>
       </c>
       <c r="G379" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H379" t="s">
         <v>15</v>
@@ -15034,16 +15052,16 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="B380" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="C380">
-        <v>9618138939</v>
+        <v>9948418776</v>
       </c>
       <c r="D380" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="E380" t="s">
         <v>19</v>
@@ -15052,59 +15070,59 @@
         <v>549</v>
       </c>
       <c r="G380" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="H380" t="s">
-        <v>15</v>
+        <v>361</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>1490</v>
+        <v>1497</v>
       </c>
       <c r="B381" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="C381">
-        <v>9948418776</v>
+        <v>8074931793</v>
       </c>
       <c r="D381" t="s">
-        <v>1492</v>
+        <v>1499</v>
       </c>
       <c r="E381" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="F381" t="s">
         <v>549</v>
       </c>
       <c r="G381" t="s">
-        <v>1493</v>
+        <v>1500</v>
       </c>
       <c r="H381" t="s">
-        <v>361</v>
+        <v>15</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="B382" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="C382">
-        <v>8074931793</v>
+        <v>9390322871</v>
       </c>
       <c r="D382" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="E382" t="s">
         <v>133</v>
       </c>
       <c r="F382" t="s">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="G382" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="H382" t="s">
         <v>15</v>
@@ -15112,25 +15130,25 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B383" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="C383">
-        <v>9390322871</v>
+        <v>7337432711</v>
       </c>
       <c r="D383" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="E383" t="s">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="F383" t="s">
         <v>13</v>
       </c>
       <c r="G383" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="H383" t="s">
         <v>15</v>
@@ -15138,25 +15156,25 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B384" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="C384">
-        <v>7337432711</v>
+        <v>8309329250</v>
       </c>
       <c r="D384" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="E384" t="s">
         <v>323</v>
       </c>
       <c r="F384" t="s">
-        <v>13</v>
+        <v>549</v>
       </c>
       <c r="G384" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="H384" t="s">
         <v>15</v>
@@ -15164,25 +15182,25 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="B385" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="C385">
-        <v>8309329250</v>
+        <v>7075789638</v>
       </c>
       <c r="D385" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="E385" t="s">
-        <v>323</v>
+        <v>133</v>
       </c>
       <c r="F385" t="s">
         <v>549</v>
       </c>
       <c r="G385" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="H385" t="s">
         <v>15</v>
@@ -15190,16 +15208,16 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="B386" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="C386">
-        <v>7075789638</v>
+        <v>9032769043</v>
       </c>
       <c r="D386" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="E386" t="s">
         <v>133</v>
@@ -15208,7 +15226,7 @@
         <v>549</v>
       </c>
       <c r="G386" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="H386" t="s">
         <v>15</v>
@@ -15216,16 +15234,16 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="B387" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="C387">
-        <v>9032769043</v>
+        <v>8523056539</v>
       </c>
       <c r="D387" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="E387" t="s">
         <v>133</v>
@@ -15234,7 +15252,7 @@
         <v>549</v>
       </c>
       <c r="G387" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H387" t="s">
         <v>15</v>
@@ -15242,16 +15260,16 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="B388" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="C388">
-        <v>8523056539</v>
+        <v>6281533969</v>
       </c>
       <c r="D388" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="E388" t="s">
         <v>133</v>
@@ -15260,7 +15278,7 @@
         <v>549</v>
       </c>
       <c r="G388" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="H388" t="s">
         <v>15</v>
@@ -15268,16 +15286,16 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="B389" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="C389">
-        <v>6281533969</v>
+        <v>7702393917</v>
       </c>
       <c r="D389" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="E389" t="s">
         <v>133</v>
@@ -15286,7 +15304,7 @@
         <v>549</v>
       </c>
       <c r="G389" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="H389" t="s">
         <v>15</v>
@@ -15294,25 +15312,25 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="B390" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="C390">
-        <v>7702393917</v>
+        <v>8978826131</v>
       </c>
       <c r="D390" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="E390" t="s">
         <v>133</v>
       </c>
       <c r="F390" t="s">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="G390" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="H390" t="s">
         <v>15</v>
@@ -15320,16 +15338,16 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="B391" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="C391">
-        <v>8978826131</v>
+        <v>8106094952</v>
       </c>
       <c r="D391" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="E391" t="s">
         <v>133</v>
@@ -15338,7 +15356,7 @@
         <v>13</v>
       </c>
       <c r="G391" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="H391" t="s">
         <v>15</v>
@@ -15346,25 +15364,25 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="B392" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="C392">
-        <v>8106094952</v>
+        <v>8328436970</v>
       </c>
       <c r="D392" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="E392" t="s">
         <v>133</v>
       </c>
       <c r="F392" t="s">
-        <v>13</v>
+        <v>549</v>
       </c>
       <c r="G392" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="H392" t="s">
         <v>15</v>
@@ -15372,16 +15390,16 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="B393" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="C393">
-        <v>8328436970</v>
+        <v>9182626720</v>
       </c>
       <c r="D393" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="E393" t="s">
         <v>133</v>
@@ -15390,7 +15408,7 @@
         <v>549</v>
       </c>
       <c r="G393" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="H393" t="s">
         <v>15</v>
@@ -15398,16 +15416,16 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="B394" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="C394">
-        <v>9182626720</v>
+        <v>8499886127</v>
       </c>
       <c r="D394" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="E394" t="s">
         <v>133</v>
@@ -15416,7 +15434,7 @@
         <v>549</v>
       </c>
       <c r="G394" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="H394" t="s">
         <v>15</v>
@@ -15424,25 +15442,25 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="B395" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="C395">
-        <v>8499886127</v>
+        <v>8247865816</v>
       </c>
       <c r="D395" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="E395" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="F395" t="s">
         <v>549</v>
       </c>
       <c r="G395" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="H395" t="s">
         <v>15</v>
@@ -15450,16 +15468,16 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="B396" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="C396">
-        <v>8247865816</v>
+        <v>6300649166</v>
       </c>
       <c r="D396" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="E396" t="s">
         <v>19</v>
@@ -15468,7 +15486,7 @@
         <v>549</v>
       </c>
       <c r="G396" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="H396" t="s">
         <v>15</v>
@@ -15476,16 +15494,16 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="B397" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="C397">
-        <v>6300649166</v>
+        <v>6305110134</v>
       </c>
       <c r="D397" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="E397" t="s">
         <v>19</v>
@@ -15494,7 +15512,7 @@
         <v>549</v>
       </c>
       <c r="G397" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="H397" t="s">
         <v>15</v>
@@ -15502,25 +15520,25 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="B398" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="C398">
-        <v>6305110134</v>
+        <v>9177578161</v>
       </c>
       <c r="D398" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="E398" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="F398" t="s">
         <v>549</v>
       </c>
       <c r="G398" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="H398" t="s">
         <v>15</v>
@@ -15528,25 +15546,25 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="B399" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="C399">
-        <v>9177578161</v>
+        <v>9441133180</v>
       </c>
       <c r="D399" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="E399" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="F399" t="s">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="G399" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="H399" t="s">
         <v>15</v>
@@ -15554,25 +15572,25 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="B400" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="C400">
-        <v>9441133180</v>
+        <v>7842593409</v>
       </c>
       <c r="D400" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="E400" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F400" t="s">
-        <v>13</v>
+        <v>549</v>
       </c>
       <c r="G400" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="H400" t="s">
         <v>15</v>
@@ -15580,25 +15598,25 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="B401" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="C401">
-        <v>7842593409</v>
+        <v>9381284510</v>
       </c>
       <c r="D401" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="E401" t="s">
-        <v>19</v>
+        <v>574</v>
       </c>
       <c r="F401" t="s">
         <v>549</v>
       </c>
       <c r="G401" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="H401" t="s">
         <v>15</v>
@@ -15606,25 +15624,25 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="B402" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="C402">
-        <v>9381284510</v>
+        <v>9390497593</v>
       </c>
       <c r="D402" t="s">
-        <v>1580</v>
+        <v>974</v>
       </c>
       <c r="E402" t="s">
-        <v>574</v>
+        <v>133</v>
       </c>
       <c r="F402" t="s">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="G402" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="H402" t="s">
         <v>15</v>
@@ -15632,25 +15650,25 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="B403" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="C403">
-        <v>9390497593</v>
+        <v>9032796018</v>
       </c>
       <c r="D403" t="s">
-        <v>974</v>
+        <v>1586</v>
       </c>
       <c r="E403" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="F403" t="s">
-        <v>13</v>
+        <v>549</v>
       </c>
       <c r="G403" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="H403" t="s">
         <v>15</v>
@@ -15658,16 +15676,16 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="B404" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="C404">
-        <v>9032796018</v>
+        <v>7013263994</v>
       </c>
       <c r="D404" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="E404" t="s">
         <v>19</v>
@@ -15676,7 +15694,7 @@
         <v>549</v>
       </c>
       <c r="G404" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="H404" t="s">
         <v>15</v>
@@ -15684,16 +15702,16 @@
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="B405" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C405">
-        <v>7013263994</v>
+        <v>9390777855</v>
       </c>
       <c r="D405" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="E405" t="s">
         <v>19</v>
@@ -15702,7 +15720,7 @@
         <v>549</v>
       </c>
       <c r="G405" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="H405" t="s">
         <v>15</v>
@@ -15710,16 +15728,16 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="B406" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="C406">
-        <v>9390777855</v>
+        <v>9666148320</v>
       </c>
       <c r="D406" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="E406" t="s">
         <v>19</v>
@@ -15728,7 +15746,7 @@
         <v>549</v>
       </c>
       <c r="G406" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="H406" t="s">
         <v>15</v>
@@ -15736,25 +15754,25 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="B407" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="C407">
-        <v>9666148320</v>
+        <v>8125918168</v>
       </c>
       <c r="D407" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="E407" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="F407" t="s">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="G407" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="H407" t="s">
         <v>15</v>
@@ -15762,25 +15780,25 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="B408" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="C408">
-        <v>8125918168</v>
+        <v>9059315079</v>
       </c>
       <c r="D408" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="E408" t="s">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="F408" t="s">
-        <v>13</v>
+        <v>549</v>
       </c>
       <c r="G408" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="H408" t="s">
         <v>15</v>
@@ -15788,16 +15806,16 @@
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="B409" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="C409">
-        <v>9059315079</v>
+        <v>6302298002</v>
       </c>
       <c r="D409" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="E409" t="s">
         <v>323</v>
@@ -15806,7 +15824,7 @@
         <v>549</v>
       </c>
       <c r="G409" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="H409" t="s">
         <v>15</v>
@@ -15814,16 +15832,16 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="B410" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="C410">
-        <v>6302298002</v>
+        <v>8886577340</v>
       </c>
       <c r="D410" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="E410" t="s">
         <v>323</v>
@@ -15832,7 +15850,7 @@
         <v>549</v>
       </c>
       <c r="G410" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="H410" t="s">
         <v>15</v>
@@ -15840,16 +15858,16 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="B411" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="C411">
-        <v>8886577340</v>
+        <v>9493834676</v>
       </c>
       <c r="D411" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="E411" t="s">
         <v>323</v>
@@ -15858,7 +15876,7 @@
         <v>549</v>
       </c>
       <c r="G411" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="H411" t="s">
         <v>15</v>
@@ -15866,16 +15884,16 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="B412" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="C412">
-        <v>9493834676</v>
+        <v>9182330751</v>
       </c>
       <c r="D412" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="E412" t="s">
         <v>323</v>
@@ -15884,7 +15902,7 @@
         <v>549</v>
       </c>
       <c r="G412" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="H412" t="s">
         <v>15</v>
@@ -15892,25 +15910,25 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="B413" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="C413">
-        <v>9182330751</v>
+        <v>8919441283</v>
       </c>
       <c r="D413" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="E413" t="s">
         <v>323</v>
       </c>
       <c r="F413" t="s">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="G413" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="H413" t="s">
         <v>15</v>
@@ -15918,53 +15936,27 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="B414" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C414">
-        <v>8919441283</v>
+        <v>1629</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1630</v>
       </c>
       <c r="D414" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="E414" t="s">
         <v>323</v>
       </c>
       <c r="F414" t="s">
-        <v>13</v>
+        <v>549</v>
       </c>
       <c r="G414" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="H414" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
-        <v>1629</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C415" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D415" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E415" t="s">
-        <v>323</v>
-      </c>
-      <c r="F415" t="s">
-        <v>549</v>
-      </c>
-      <c r="G415" t="s">
-        <v>1633</v>
-      </c>
-      <c r="H415" t="s">
         <v>15</v>
       </c>
     </row>
